--- a/DataBase_1/Data.xlsx
+++ b/DataBase_1/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assig-egm722\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assig-egm722\ArcheoFunction\DataBase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C163D0-5ED4-4D94-AD1D-5A7B516453F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7C71E-984F-463C-ADD1-1BB9663B5C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,21 +197,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -283,48 +277,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,15 +318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC5B9E4-DF10-4E37-B615-745B13E1CDF1}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,209 +645,209 @@
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1105,22 +1053,9 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/DataBase_1/Data.xlsx
+++ b/DataBase_1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assig-egm722\ArcheoFunction\DataBase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7C71E-984F-463C-ADD1-1BB9663B5C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7FE30B-B0B1-4C13-85CE-70E01B0A71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>

--- a/DataBase_1/Data.xlsx
+++ b/DataBase_1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assig-egm722\ArcheoFunction\DataBase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7FE30B-B0B1-4C13-85CE-70E01B0A71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFA4E4B-BCDC-44DB-985A-3D336F0A0E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DataBase_1/Data.xlsx
+++ b/DataBase_1/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assig-egm722\ArcheoFunction\DataBase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFA4E4B-BCDC-44DB-985A-3D336F0A0E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CC08A-4B12-475C-9E3B-104186F2B351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -167,6 +167,42 @@
   </si>
   <si>
     <t>685,47m</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34.401294°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.059160°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34.530713°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.046725°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34.361251°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.726977°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34.255988°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.661733°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34.281113°</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.660885°</t>
   </si>
 </sst>
 </file>
@@ -600,26 +636,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC5B9E4-DF10-4E37-B615-745B13E1CDF1}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="2" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -631,9 +667,11 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -643,9 +681,11 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,28 +696,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -688,28 +734,34 @@
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -720,28 +772,34 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -752,28 +810,34 @@
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -784,28 +848,34 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -816,28 +886,34 @@
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -848,8 +924,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -860,8 +938,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -872,8 +952,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -884,8 +966,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -896,8 +980,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -908,8 +994,10 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -920,8 +1008,10 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -932,8 +1022,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -944,8 +1036,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -956,8 +1050,10 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -968,8 +1064,10 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -980,8 +1078,10 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -992,8 +1092,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1004,8 +1106,10 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1016,8 +1120,10 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1028,8 +1134,10 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1040,8 +1148,10 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1052,10 +1162,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/DataBase_1/Data.xlsx
+++ b/DataBase_1/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assig-egm722\ArcheoFunction\DataBase_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CC08A-4B12-475C-9E3B-104186F2B351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673F3C2D-F87B-4F6C-87ED-3B3C68E899AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -173,36 +173,6 @@
   </si>
   <si>
     <t>Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34.401294°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36.059160°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34.530713°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36.046725°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34.361251°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35.726977°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34.255988°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35.661733°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 34.281113°</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35.660885°</t>
   </si>
 </sst>
 </file>
@@ -639,7 +609,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,11 +703,11 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
+      <c r="D4" s="4">
+        <v>34.401294</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36.059159999999999</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -771,11 +741,11 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
+      <c r="D5" s="4">
+        <v>34.530712999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>36.046725000000002</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -809,11 +779,11 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
+      <c r="D6" s="1">
+        <v>34.361251000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35.726976999999998</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
@@ -847,11 +817,11 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
+      <c r="D7" s="1">
+        <v>34.255988000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35.661732999999998</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>35</v>
@@ -885,11 +855,11 @@
       <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
+      <c r="D8" s="1">
+        <v>34.281112999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35.660885</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>36</v>
